--- a/data_year/zb/人口/人口抽样调查样本数据/按年龄分人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按年龄分人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1151 +543,701 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64830</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62481</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80388</v>
+      </c>
+      <c r="E2" t="n">
+        <v>108567</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89259</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82148</v>
+      </c>
+      <c r="H2" t="n">
+        <v>96895</v>
+      </c>
+      <c r="I2" t="n">
+        <v>107391</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100853</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61279</v>
+      </c>
+      <c r="L2" t="n">
+        <v>62204</v>
+      </c>
+      <c r="M2" t="n">
+        <v>71667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>52708</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36054</v>
+      </c>
+      <c r="P2" t="n">
+        <v>28826</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21174</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11964</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4796</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1437</v>
+      </c>
+      <c r="U2" t="n">
+        <v>290</v>
+      </c>
       <c r="V2" t="n">
-        <v>1258951</v>
+        <v>1145209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62977</v>
+        <v>63981</v>
       </c>
       <c r="C3" t="n">
-        <v>112240</v>
+        <v>59845</v>
       </c>
       <c r="D3" t="n">
-        <v>104716</v>
+        <v>73914</v>
       </c>
       <c r="E3" t="n">
-        <v>80596</v>
+        <v>101742</v>
       </c>
       <c r="F3" t="n">
-        <v>93892</v>
+        <v>89936</v>
       </c>
       <c r="G3" t="n">
-        <v>123497</v>
+        <v>83586</v>
       </c>
       <c r="H3" t="n">
-        <v>123252</v>
+        <v>89054</v>
       </c>
       <c r="I3" t="n">
-        <v>91467</v>
+        <v>107532</v>
       </c>
       <c r="J3" t="n">
-        <v>94314</v>
+        <v>99312</v>
       </c>
       <c r="K3" t="n">
-        <v>81127</v>
+        <v>61309</v>
       </c>
       <c r="L3" t="n">
-        <v>81679</v>
+        <v>61916</v>
       </c>
       <c r="M3" t="n">
-        <v>57472</v>
+        <v>71403</v>
       </c>
       <c r="N3" t="n">
-        <v>46023</v>
+        <v>55427</v>
       </c>
       <c r="O3" t="n">
-        <v>41710</v>
+        <v>37579</v>
       </c>
       <c r="P3" t="n">
-        <v>31484</v>
+        <v>28225</v>
       </c>
       <c r="Q3" t="n">
-        <v>19310</v>
+        <v>21250</v>
       </c>
       <c r="R3" t="n">
-        <v>9832</v>
+        <v>12147</v>
       </c>
       <c r="S3" t="n">
-        <v>3687</v>
+        <v>4780</v>
       </c>
       <c r="T3" t="n">
-        <v>1026</v>
+        <v>1439</v>
       </c>
       <c r="U3" t="n">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="V3" t="n">
-        <v>1260498</v>
+        <v>1124661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61874</v>
+        <v>63490</v>
       </c>
       <c r="C4" t="n">
+        <v>57562</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97406</v>
+      </c>
+      <c r="F4" t="n">
+        <v>93136</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82677</v>
+      </c>
+      <c r="H4" t="n">
+        <v>84334</v>
+      </c>
+      <c r="I4" t="n">
         <v>103771</v>
       </c>
-      <c r="D4" t="n">
-        <v>109259</v>
-      </c>
-      <c r="E4" t="n">
-        <v>79604</v>
-      </c>
-      <c r="F4" t="n">
-        <v>88490</v>
-      </c>
-      <c r="G4" t="n">
-        <v>117954</v>
-      </c>
-      <c r="H4" t="n">
-        <v>122574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100595</v>
-      </c>
       <c r="J4" t="n">
-        <v>89609</v>
+        <v>98129</v>
       </c>
       <c r="K4" t="n">
-        <v>76221</v>
+        <v>62446</v>
       </c>
       <c r="L4" t="n">
-        <v>86438</v>
+        <v>69533</v>
       </c>
       <c r="M4" t="n">
-        <v>61775</v>
+        <v>70719</v>
       </c>
       <c r="N4" t="n">
-        <v>47599</v>
+        <v>58256</v>
       </c>
       <c r="O4" t="n">
-        <v>40062</v>
+        <v>39216</v>
       </c>
       <c r="P4" t="n">
-        <v>32538</v>
+        <v>27905</v>
       </c>
       <c r="Q4" t="n">
-        <v>19159</v>
+        <v>21253</v>
       </c>
       <c r="R4" t="n">
-        <v>10469</v>
+        <v>12769</v>
       </c>
       <c r="S4" t="n">
-        <v>3727</v>
+        <v>5256</v>
       </c>
       <c r="T4" t="n">
-        <v>1115</v>
+        <v>1558</v>
       </c>
       <c r="U4" t="n">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="V4" t="n">
-        <v>1253065</v>
+        <v>1118433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907102</v>
+        <v>63990</v>
       </c>
       <c r="C5" t="n">
-        <v>1353263</v>
+        <v>58287</v>
       </c>
       <c r="D5" t="n">
-        <v>1443484</v>
+        <v>64719</v>
       </c>
       <c r="E5" t="n">
-        <v>1036723</v>
+        <v>90785</v>
       </c>
       <c r="F5" t="n">
-        <v>1110290</v>
+        <v>98845</v>
       </c>
       <c r="G5" t="n">
-        <v>1445908</v>
+        <v>82546</v>
       </c>
       <c r="H5" t="n">
-        <v>1651487</v>
+        <v>81792</v>
       </c>
       <c r="I5" t="n">
-        <v>1475539</v>
+        <v>101959</v>
       </c>
       <c r="J5" t="n">
-        <v>1147578</v>
+        <v>99249</v>
       </c>
       <c r="K5" t="n">
-        <v>1060664</v>
+        <v>63132</v>
       </c>
       <c r="L5" t="n">
-        <v>1236929</v>
+        <v>77909</v>
       </c>
       <c r="M5" t="n">
-        <v>907435</v>
+        <v>66409</v>
       </c>
       <c r="N5" t="n">
-        <v>668310</v>
+        <v>61608</v>
       </c>
       <c r="O5" t="n">
-        <v>564095</v>
+        <v>41709</v>
       </c>
       <c r="P5" t="n">
-        <v>454955</v>
+        <v>29133</v>
       </c>
       <c r="Q5" t="n">
-        <v>290171</v>
+        <v>21330</v>
       </c>
       <c r="R5" t="n">
-        <v>156110</v>
+        <v>13289</v>
       </c>
       <c r="S5" t="n">
-        <v>56582</v>
+        <v>5604</v>
       </c>
       <c r="T5" t="n">
-        <v>15825</v>
+        <v>1757</v>
       </c>
       <c r="U5" t="n">
-        <v>3319</v>
+        <v>347</v>
       </c>
       <c r="V5" t="n">
-        <v>16985766</v>
+        <v>1124402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60556</v>
+        <v>1243566</v>
       </c>
       <c r="C6" t="n">
-        <v>89136</v>
+        <v>1103520</v>
       </c>
       <c r="D6" t="n">
-        <v>105023</v>
+        <v>1165548</v>
       </c>
       <c r="E6" t="n">
-        <v>76160</v>
+        <v>1554837</v>
       </c>
       <c r="F6" t="n">
-        <v>74110</v>
+        <v>1992252</v>
       </c>
       <c r="G6" t="n">
-        <v>93398</v>
+        <v>1573049</v>
       </c>
       <c r="H6" t="n">
-        <v>113952</v>
+        <v>1507593</v>
       </c>
       <c r="I6" t="n">
-        <v>115781</v>
+        <v>1824946</v>
       </c>
       <c r="J6" t="n">
-        <v>76496</v>
+        <v>1921117</v>
       </c>
       <c r="K6" t="n">
-        <v>70588</v>
+        <v>1174724</v>
       </c>
       <c r="L6" t="n">
-        <v>90607</v>
+        <v>1615839</v>
       </c>
       <c r="M6" t="n">
-        <v>68277</v>
+        <v>1193350</v>
       </c>
       <c r="N6" t="n">
-        <v>48886</v>
+        <v>1211435</v>
       </c>
       <c r="O6" t="n">
-        <v>39996</v>
+        <v>850443</v>
       </c>
       <c r="P6" t="n">
-        <v>32692</v>
+        <v>563097</v>
       </c>
       <c r="Q6" t="n">
-        <v>20632</v>
+        <v>411240</v>
       </c>
       <c r="R6" t="n">
-        <v>10825</v>
+        <v>253260</v>
       </c>
       <c r="S6" t="n">
-        <v>4142</v>
+        <v>111758</v>
       </c>
       <c r="T6" t="n">
-        <v>1130</v>
+        <v>33773</v>
       </c>
       <c r="U6" t="n">
-        <v>279</v>
+        <v>6894</v>
       </c>
       <c r="V6" t="n">
-        <v>1192666</v>
+        <v>21312241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59996</v>
+        <v>68447</v>
       </c>
       <c r="C7" t="n">
-        <v>84278</v>
+        <v>60420</v>
       </c>
       <c r="D7" t="n">
-        <v>98916</v>
+        <v>61562</v>
       </c>
       <c r="E7" t="n">
-        <v>78601</v>
+        <v>79102</v>
       </c>
       <c r="F7" t="n">
-        <v>76755</v>
+        <v>106663</v>
       </c>
       <c r="G7" t="n">
-        <v>86753</v>
+        <v>87573</v>
       </c>
       <c r="H7" t="n">
-        <v>115391</v>
+        <v>80485</v>
       </c>
       <c r="I7" t="n">
-        <v>115847</v>
+        <v>94730</v>
       </c>
       <c r="J7" t="n">
-        <v>76085</v>
+        <v>104623</v>
       </c>
       <c r="K7" t="n">
-        <v>68202</v>
+        <v>63831</v>
       </c>
       <c r="L7" t="n">
-        <v>92481</v>
+        <v>97608</v>
       </c>
       <c r="M7" t="n">
-        <v>73224</v>
+        <v>59638</v>
       </c>
       <c r="N7" t="n">
-        <v>50998</v>
+        <v>67696</v>
       </c>
       <c r="O7" t="n">
-        <v>39849</v>
+        <v>48454</v>
       </c>
       <c r="P7" t="n">
-        <v>33236</v>
+        <v>31677</v>
       </c>
       <c r="Q7" t="n">
-        <v>20985</v>
+        <v>22449</v>
       </c>
       <c r="R7" t="n">
-        <v>11302</v>
+        <v>14331</v>
       </c>
       <c r="S7" t="n">
-        <v>4436</v>
+        <v>6416</v>
       </c>
       <c r="T7" t="n">
-        <v>1123</v>
+        <v>1902</v>
       </c>
       <c r="U7" t="n">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="V7" t="n">
-        <v>1188739</v>
+        <v>1158019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60409</v>
+        <v>68313</v>
       </c>
       <c r="C8" t="n">
-        <v>79278</v>
+        <v>60727</v>
       </c>
       <c r="D8" t="n">
-        <v>92767</v>
+        <v>59251</v>
       </c>
       <c r="E8" t="n">
-        <v>80885</v>
+        <v>73185</v>
       </c>
       <c r="F8" t="n">
-        <v>76417</v>
+        <v>100701</v>
       </c>
       <c r="G8" t="n">
-        <v>82027</v>
+        <v>88959</v>
       </c>
       <c r="H8" t="n">
-        <v>109297</v>
+        <v>82553</v>
       </c>
       <c r="I8" t="n">
-        <v>113708</v>
+        <v>87713</v>
       </c>
       <c r="J8" t="n">
-        <v>84701</v>
+        <v>105476</v>
       </c>
       <c r="K8" t="n">
-        <v>64402</v>
+        <v>63314</v>
       </c>
       <c r="L8" t="n">
-        <v>91958</v>
+        <v>96760</v>
       </c>
       <c r="M8" t="n">
-        <v>77554</v>
+        <v>59823</v>
       </c>
       <c r="N8" t="n">
-        <v>52706</v>
+        <v>68044</v>
       </c>
       <c r="O8" t="n">
-        <v>39183</v>
+        <v>51552</v>
       </c>
       <c r="P8" t="n">
-        <v>33302</v>
+        <v>32590</v>
       </c>
       <c r="Q8" t="n">
-        <v>21991</v>
+        <v>22553</v>
       </c>
       <c r="R8" t="n">
-        <v>11686</v>
+        <v>14708</v>
       </c>
       <c r="S8" t="n">
-        <v>4777</v>
+        <v>6606</v>
       </c>
       <c r="T8" t="n">
-        <v>1205</v>
+        <v>1964</v>
       </c>
       <c r="U8" t="n">
-        <v>269</v>
+        <v>455</v>
       </c>
       <c r="V8" t="n">
-        <v>1178521</v>
+        <v>1145246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60158</v>
+        <v>67393</v>
       </c>
       <c r="C9" t="n">
-        <v>73359</v>
+        <v>62248</v>
       </c>
       <c r="D9" t="n">
-        <v>83516</v>
+        <v>58258</v>
       </c>
       <c r="E9" t="n">
-        <v>87637</v>
+        <v>68050</v>
       </c>
       <c r="F9" t="n">
-        <v>75481</v>
+        <v>92977</v>
       </c>
       <c r="G9" t="n">
-        <v>78735</v>
+        <v>93201</v>
       </c>
       <c r="H9" t="n">
-        <v>106040</v>
+        <v>81886</v>
       </c>
       <c r="I9" t="n">
-        <v>112356</v>
+        <v>83574</v>
       </c>
       <c r="J9" t="n">
-        <v>92367</v>
+        <v>102384</v>
       </c>
       <c r="K9" t="n">
-        <v>63000</v>
+        <v>63322</v>
       </c>
       <c r="L9" t="n">
-        <v>84335</v>
+        <v>96850</v>
       </c>
       <c r="M9" t="n">
-        <v>79114</v>
+        <v>69844</v>
       </c>
       <c r="N9" t="n">
-        <v>55690</v>
+        <v>68014</v>
       </c>
       <c r="O9" t="n">
-        <v>40114</v>
+        <v>54799</v>
       </c>
       <c r="P9" t="n">
-        <v>32493</v>
+        <v>34810</v>
       </c>
       <c r="Q9" t="n">
-        <v>22528</v>
+        <v>22799</v>
       </c>
       <c r="R9" t="n">
-        <v>11794</v>
+        <v>14845</v>
       </c>
       <c r="S9" t="n">
-        <v>4788</v>
+        <v>6902</v>
       </c>
       <c r="T9" t="n">
-        <v>1174</v>
+        <v>2031</v>
       </c>
       <c r="U9" t="n">
-        <v>308</v>
+        <v>458</v>
       </c>
       <c r="V9" t="n">
-        <v>1164986</v>
+        <v>1144648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64830</v>
+        <v>62722</v>
       </c>
       <c r="C10" t="n">
-        <v>62481</v>
+        <v>59844</v>
       </c>
       <c r="D10" t="n">
-        <v>80388</v>
+        <v>55822</v>
       </c>
       <c r="E10" t="n">
-        <v>108567</v>
+        <v>61519</v>
       </c>
       <c r="F10" t="n">
-        <v>89259</v>
+        <v>81741</v>
       </c>
       <c r="G10" t="n">
-        <v>82148</v>
+        <v>93971</v>
       </c>
       <c r="H10" t="n">
-        <v>96895</v>
+        <v>77703</v>
       </c>
       <c r="I10" t="n">
-        <v>107391</v>
+        <v>77044</v>
       </c>
       <c r="J10" t="n">
-        <v>100853</v>
+        <v>95621</v>
       </c>
       <c r="K10" t="n">
-        <v>61279</v>
+        <v>60701</v>
       </c>
       <c r="L10" t="n">
-        <v>62204</v>
+        <v>93125</v>
       </c>
       <c r="M10" t="n">
-        <v>71667</v>
+        <v>74068</v>
       </c>
       <c r="N10" t="n">
-        <v>52708</v>
+        <v>60712</v>
       </c>
       <c r="O10" t="n">
-        <v>36054</v>
+        <v>55086</v>
       </c>
       <c r="P10" t="n">
-        <v>28826</v>
+        <v>35665</v>
       </c>
       <c r="Q10" t="n">
-        <v>21174</v>
+        <v>22610</v>
       </c>
       <c r="R10" t="n">
-        <v>11964</v>
+        <v>14322</v>
       </c>
       <c r="S10" t="n">
-        <v>4796</v>
+        <v>7036</v>
       </c>
       <c r="T10" t="n">
-        <v>1437</v>
+        <v>2113</v>
       </c>
       <c r="U10" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="V10" t="n">
-        <v>1145209</v>
+        <v>1091876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63981</v>
+        <v>72978</v>
       </c>
       <c r="C11" t="n">
-        <v>59845</v>
+        <v>92304</v>
       </c>
       <c r="D11" t="n">
-        <v>73914</v>
+        <v>79414</v>
       </c>
       <c r="E11" t="n">
-        <v>101742</v>
+        <v>77256</v>
       </c>
       <c r="F11" t="n">
-        <v>89936</v>
+        <v>91729</v>
       </c>
       <c r="G11" t="n">
-        <v>83586</v>
+        <v>128056</v>
       </c>
       <c r="H11" t="n">
-        <v>89054</v>
+        <v>109171</v>
       </c>
       <c r="I11" t="n">
-        <v>107532</v>
+        <v>98023</v>
       </c>
       <c r="J11" t="n">
-        <v>99312</v>
+        <v>114545</v>
       </c>
       <c r="K11" t="n">
-        <v>61309</v>
+        <v>96094</v>
       </c>
       <c r="L11" t="n">
-        <v>61916</v>
+        <v>129319</v>
       </c>
       <c r="M11" t="n">
-        <v>71403</v>
+        <v>121989</v>
       </c>
       <c r="N11" t="n">
-        <v>55427</v>
+        <v>70755</v>
       </c>
       <c r="O11" t="n">
-        <v>37579</v>
+        <v>81345</v>
       </c>
       <c r="P11" t="n">
-        <v>28225</v>
+        <v>56208</v>
       </c>
       <c r="Q11" t="n">
-        <v>21250</v>
+        <v>34886</v>
       </c>
       <c r="R11" t="n">
-        <v>12147</v>
+        <v>22543</v>
       </c>
       <c r="S11" t="n">
-        <v>4780</v>
+        <v>12317</v>
       </c>
       <c r="T11" t="n">
-        <v>1439</v>
+        <v>4249</v>
       </c>
       <c r="U11" t="n">
-        <v>283</v>
+        <v>871</v>
       </c>
       <c r="V11" t="n">
-        <v>1124661</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>63490</v>
-      </c>
-      <c r="C12" t="n">
-        <v>57562</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68715</v>
-      </c>
-      <c r="E12" t="n">
-        <v>97406</v>
-      </c>
-      <c r="F12" t="n">
-        <v>93136</v>
-      </c>
-      <c r="G12" t="n">
-        <v>82677</v>
-      </c>
-      <c r="H12" t="n">
-        <v>84334</v>
-      </c>
-      <c r="I12" t="n">
-        <v>103771</v>
-      </c>
-      <c r="J12" t="n">
-        <v>98129</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62446</v>
-      </c>
-      <c r="L12" t="n">
-        <v>69533</v>
-      </c>
-      <c r="M12" t="n">
-        <v>70719</v>
-      </c>
-      <c r="N12" t="n">
-        <v>58256</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39216</v>
-      </c>
-      <c r="P12" t="n">
-        <v>27905</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>21253</v>
-      </c>
-      <c r="R12" t="n">
-        <v>12769</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5256</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1558</v>
-      </c>
-      <c r="U12" t="n">
-        <v>304</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1118433</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>63990</v>
-      </c>
-      <c r="C13" t="n">
-        <v>58287</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64719</v>
-      </c>
-      <c r="E13" t="n">
-        <v>90785</v>
-      </c>
-      <c r="F13" t="n">
-        <v>98845</v>
-      </c>
-      <c r="G13" t="n">
-        <v>82546</v>
-      </c>
-      <c r="H13" t="n">
-        <v>81792</v>
-      </c>
-      <c r="I13" t="n">
-        <v>101959</v>
-      </c>
-      <c r="J13" t="n">
-        <v>99249</v>
-      </c>
-      <c r="K13" t="n">
-        <v>63132</v>
-      </c>
-      <c r="L13" t="n">
-        <v>77909</v>
-      </c>
-      <c r="M13" t="n">
-        <v>66409</v>
-      </c>
-      <c r="N13" t="n">
-        <v>61608</v>
-      </c>
-      <c r="O13" t="n">
-        <v>41709</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29133</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21330</v>
-      </c>
-      <c r="R13" t="n">
-        <v>13289</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5604</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1757</v>
-      </c>
-      <c r="U13" t="n">
-        <v>347</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1124402</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1243566</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1103520</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1165548</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1554837</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1992252</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1573049</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1507593</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1824946</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1921117</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1174724</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1615839</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1193350</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1211435</v>
-      </c>
-      <c r="O14" t="n">
-        <v>850443</v>
-      </c>
-      <c r="P14" t="n">
-        <v>563097</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>411240</v>
-      </c>
-      <c r="R14" t="n">
-        <v>253260</v>
-      </c>
-      <c r="S14" t="n">
-        <v>111758</v>
-      </c>
-      <c r="T14" t="n">
-        <v>33773</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6894</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21312241</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>68447</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60420</v>
-      </c>
-      <c r="D15" t="n">
-        <v>61562</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79102</v>
-      </c>
-      <c r="F15" t="n">
-        <v>106663</v>
-      </c>
-      <c r="G15" t="n">
-        <v>87573</v>
-      </c>
-      <c r="H15" t="n">
-        <v>80485</v>
-      </c>
-      <c r="I15" t="n">
-        <v>94730</v>
-      </c>
-      <c r="J15" t="n">
-        <v>104623</v>
-      </c>
-      <c r="K15" t="n">
-        <v>63831</v>
-      </c>
-      <c r="L15" t="n">
-        <v>97608</v>
-      </c>
-      <c r="M15" t="n">
-        <v>59638</v>
-      </c>
-      <c r="N15" t="n">
-        <v>67696</v>
-      </c>
-      <c r="O15" t="n">
-        <v>48454</v>
-      </c>
-      <c r="P15" t="n">
-        <v>31677</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>22449</v>
-      </c>
-      <c r="R15" t="n">
-        <v>14331</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6416</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1902</v>
-      </c>
-      <c r="U15" t="n">
-        <v>413</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1158019</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>68313</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60727</v>
-      </c>
-      <c r="D16" t="n">
-        <v>59251</v>
-      </c>
-      <c r="E16" t="n">
-        <v>73185</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100701</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88959</v>
-      </c>
-      <c r="H16" t="n">
-        <v>82553</v>
-      </c>
-      <c r="I16" t="n">
-        <v>87713</v>
-      </c>
-      <c r="J16" t="n">
-        <v>105476</v>
-      </c>
-      <c r="K16" t="n">
-        <v>63314</v>
-      </c>
-      <c r="L16" t="n">
-        <v>96760</v>
-      </c>
-      <c r="M16" t="n">
-        <v>59823</v>
-      </c>
-      <c r="N16" t="n">
-        <v>68044</v>
-      </c>
-      <c r="O16" t="n">
-        <v>51552</v>
-      </c>
-      <c r="P16" t="n">
-        <v>32590</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>22553</v>
-      </c>
-      <c r="R16" t="n">
-        <v>14708</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6606</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1964</v>
-      </c>
-      <c r="U16" t="n">
-        <v>455</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1145246</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>67393</v>
-      </c>
-      <c r="C17" t="n">
-        <v>62248</v>
-      </c>
-      <c r="D17" t="n">
-        <v>58258</v>
-      </c>
-      <c r="E17" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F17" t="n">
-        <v>92977</v>
-      </c>
-      <c r="G17" t="n">
-        <v>93201</v>
-      </c>
-      <c r="H17" t="n">
-        <v>81886</v>
-      </c>
-      <c r="I17" t="n">
-        <v>83574</v>
-      </c>
-      <c r="J17" t="n">
-        <v>102384</v>
-      </c>
-      <c r="K17" t="n">
-        <v>63322</v>
-      </c>
-      <c r="L17" t="n">
-        <v>96850</v>
-      </c>
-      <c r="M17" t="n">
-        <v>69844</v>
-      </c>
-      <c r="N17" t="n">
-        <v>68014</v>
-      </c>
-      <c r="O17" t="n">
-        <v>54799</v>
-      </c>
-      <c r="P17" t="n">
-        <v>34810</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>22799</v>
-      </c>
-      <c r="R17" t="n">
-        <v>14845</v>
-      </c>
-      <c r="S17" t="n">
-        <v>6902</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2031</v>
-      </c>
-      <c r="U17" t="n">
-        <v>458</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1144648</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>62722</v>
-      </c>
-      <c r="C18" t="n">
-        <v>59844</v>
-      </c>
-      <c r="D18" t="n">
-        <v>55822</v>
-      </c>
-      <c r="E18" t="n">
-        <v>61519</v>
-      </c>
-      <c r="F18" t="n">
-        <v>81741</v>
-      </c>
-      <c r="G18" t="n">
-        <v>93971</v>
-      </c>
-      <c r="H18" t="n">
-        <v>77703</v>
-      </c>
-      <c r="I18" t="n">
-        <v>77044</v>
-      </c>
-      <c r="J18" t="n">
-        <v>95621</v>
-      </c>
-      <c r="K18" t="n">
-        <v>60701</v>
-      </c>
-      <c r="L18" t="n">
-        <v>93125</v>
-      </c>
-      <c r="M18" t="n">
-        <v>74068</v>
-      </c>
-      <c r="N18" t="n">
-        <v>60712</v>
-      </c>
-      <c r="O18" t="n">
-        <v>55086</v>
-      </c>
-      <c r="P18" t="n">
-        <v>35665</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>22610</v>
-      </c>
-      <c r="R18" t="n">
-        <v>14322</v>
-      </c>
-      <c r="S18" t="n">
-        <v>7036</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2113</v>
-      </c>
-      <c r="U18" t="n">
-        <v>450</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1091876</v>
+        <v>1494054</v>
       </c>
     </row>
   </sheetData>
